--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325774.792574702</v>
+        <v>1321679.151069937</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283202</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>84.49712706373599</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>11.94060035976232</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>148.0977202315495</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>28.72285818236659</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>269.7901543274084</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.059824669809841</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>154.744187625746</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>336.5720236022914</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>70.0150592577677</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.40559397655579</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>51.57870353610233</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1347,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703279</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>217.047926834819</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>13.03790159952002</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H25" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188276</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824172</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
-        <v>177.1006680594871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.73846614325627</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218651</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218651</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>507.0302131322575</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.269056790534</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.269056790534</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.269056790534</v>
+        <v>2207.764453047476</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.269056790534</v>
+        <v>2207.764453047476</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.269056790534</v>
+        <v>2207.764453047476</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>1979.774902149459</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>1758.982323005929</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>812.785994158452</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>805.8404934092486</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>390.1357431335374</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2559.248596410448</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2559.248596410448</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.667535674628</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.604648331057</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.835993060943</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.370234799863</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042426</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1480.138859846471</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1191.020522350309</v>
+        <v>1550.217733066223</v>
       </c>
       <c r="V7" t="n">
-        <v>936.3360341444215</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W7" t="n">
-        <v>646.9188641074609</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>418.9293132094435</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.1367340659135</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.0217593722</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.556001111121</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.416669135309</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>724.9564054771553</v>
+        <v>732.4676803942471</v>
       </c>
       <c r="C10" t="n">
-        <v>556.0202225492484</v>
+        <v>563.5314974663402</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>413.4148580540044</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>265.5017644716113</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>118.6118169737009</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>118.6118169737009</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X10" t="n">
-        <v>906.604870307395</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.604870307395</v>
+        <v>914.1161452244868</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192613</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092253</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249843</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.28419561186</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.28419561186</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756267</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400726</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121657</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913858</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913858</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345993</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.29660558528</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080349</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373477</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.348534373477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206044</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926976</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803618</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979687</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508442</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6490,13 +6490,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.716550965759</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383366</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866303</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866303</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.199968177789</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279772</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136242</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7396,10 +7396,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7441,7 +7441,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2838.688024723192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199.7516311504068</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>129.7511347056858</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870874</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788442</v>
+        <v>123.7828069546816</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>8.6617285542182</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>273.1465727897241</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H25" t="n">
-        <v>121.5862749664508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457060008</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
-        <v>109.4223302771039</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8770068749561</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886671</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936147.8611886671</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.959814004</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140039</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26343,19 +26343,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309551</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26450,16 +26450,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850586.6310741771</v>
+        <v>-850586.6310741776</v>
       </c>
       <c r="C6" t="n">
-        <v>264165.1525017422</v>
+        <v>264165.1525017426</v>
       </c>
       <c r="D6" t="n">
         <v>104149.6897537431</v>
       </c>
       <c r="E6" t="n">
-        <v>49025.71179099653</v>
+        <v>48678.33253664066</v>
       </c>
       <c r="F6" t="n">
-        <v>374438.1735983526</v>
+        <v>374090.7943439951</v>
       </c>
       <c r="G6" t="n">
-        <v>374438.1735983524</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="H6" t="n">
-        <v>374438.1735983526</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="I6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="J6" t="n">
-        <v>206832.9957883698</v>
+        <v>206485.6165340126</v>
       </c>
       <c r="K6" t="n">
-        <v>374438.1735983521</v>
+        <v>374090.7943439953</v>
       </c>
       <c r="L6" t="n">
-        <v>326144.2035901614</v>
+        <v>325796.8243358044</v>
       </c>
       <c r="M6" t="n">
-        <v>289383.1456628402</v>
+        <v>289035.7664084834</v>
       </c>
       <c r="N6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439951</v>
       </c>
       <c r="O6" t="n">
-        <v>374438.173598352</v>
+        <v>374090.7943439953</v>
       </c>
       <c r="P6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439951</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>327.050575709218</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>337.3003683576507</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>46.56474013018797</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>257.504295938834</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>31.22839823499697</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>120.3923907289845</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>66.00450837146593</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>200.8610509830096</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>28.70086816871617</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>279.2259094596453</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.20987904165656</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>93.17631137821846</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>146.022599109307</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647484</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459337</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,10 +33915,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893646</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>449.431160273939</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134948053</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427302</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.2645232599122</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899105</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1321679.151069937</v>
+        <v>1323439.681372721</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283202</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>204.7836788882688</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>11.94060035976232</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>50.98074812542875</v>
       </c>
       <c r="U4" t="n">
-        <v>28.72285818236659</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>269.7901543274084</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>178.1847116015979</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>85.36610313819104</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>336.5720236022914</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926702</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380462</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>51.57870353610233</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.83266606353076</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>109.040488224226</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>6.434538210426291</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>95.12712756824172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3957,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>198.7323644553051</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>635.4772813809891</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>635.4772813809891</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>628.5317806317856</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4336,7 +4336,7 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4369,13 +4369,13 @@
         <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2094.516021098447</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.050262837367</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.910930861555</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,19 +4412,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>801.9449557744473</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005929</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078022</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665686</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>2236.777441110473</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U4" t="n">
-        <v>2207.764453047476</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V4" t="n">
-        <v>2207.764453047476</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>2207.764453047476</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>1979.774902149459</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>1758.982323005929</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.574246756696</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.574246756696</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.574246756696</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>812.785994158452</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>805.8404934092486</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>390.1357431335374</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2257.655563753294</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>1926.592676409723</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.31341879663</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1550.217733066223</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.533244860336</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149741</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189675</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.4676803942471</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>563.5314974663402</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>413.4148580540044</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>265.5017644716113</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>118.6118169737009</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>118.6118169737009</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368017</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368017</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368017</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244868</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5269,52 +5269,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>267.5122958789771</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>100.316196593857</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>150.4319895401492</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241556</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>129.7511347056858</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>110.0033420516647</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.7828069546816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>44.8352157236614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>26.97729093373206</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936147.8611886671</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886675</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26349,13 +26349,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403382</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309551</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26441,7 +26441,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26450,7 +26450,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850586.6310741776</v>
+        <v>-850586.6310741778</v>
       </c>
       <c r="C6" t="n">
-        <v>264165.1525017426</v>
+        <v>264165.1525017427</v>
       </c>
       <c r="D6" t="n">
-        <v>104149.6897537431</v>
+        <v>104149.6897537432</v>
       </c>
       <c r="E6" t="n">
-        <v>48678.33253664066</v>
+        <v>48990.97386556132</v>
       </c>
       <c r="F6" t="n">
-        <v>374090.7943439951</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="G6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="H6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="I6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="J6" t="n">
-        <v>206485.6165340126</v>
+        <v>206798.2578629339</v>
       </c>
       <c r="K6" t="n">
-        <v>374090.7943439953</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="L6" t="n">
-        <v>325796.8243358044</v>
+        <v>326109.4656647258</v>
       </c>
       <c r="M6" t="n">
-        <v>289035.7664084834</v>
+        <v>289348.4077374046</v>
       </c>
       <c r="N6" t="n">
-        <v>374090.7943439951</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="O6" t="n">
-        <v>374090.7943439953</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="P6" t="n">
-        <v>374090.7943439951</v>
+        <v>374403.4356729164</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>206.7640238846852</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>337.3003683576507</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.7679478717832</v>
       </c>
       <c r="U4" t="n">
-        <v>257.504295938834</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>31.22839823499697</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>72.86053852686408</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>200.8610509830096</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.70086816871617</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.2767095024444</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276455</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>93.17631137821846</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893646</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,7 +34795,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35017,16 +35017,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>520.9482342985597</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
